--- a/biology/Botanique/Magnolia_à_grandes_fleurs/Magnolia_à_grandes_fleurs.xlsx
+++ b/biology/Botanique/Magnolia_à_grandes_fleurs/Magnolia_à_grandes_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Magnolia_%C3%A0_grandes_fleurs</t>
+          <t>Magnolia_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia grandiflora
 Le Magnolia à grandes fleurs, ou Magnolier à grandes fleurs, ou Laurier-tulipier (Magnolia grandiflora), est une espèce de plantes à fleurs des la famille des Magnoliaceae. C'est un arbre de grande taille. Probablement en raison de ses belles feuilles persistantes, c'est le plus connu des magnolias. Il est originaire des États-Unis et largement cultivé comme arbre d'ornement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Magnolia_%C3%A0_grandes_fleurs</t>
+          <t>Magnolia_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbre, à port pyramidal, d'une hauteur allant jusqu'à 30 m, jusqu'à 25 mètres en culture.
 Son feuillage est persistant. Ses feuilles sont entières à bord lisse, de forme obovale elliptique, longues de 10 à 20 cm, coriaces, vert brillant sur la face supérieure, velues, tomenteuses et souvent roux ferrugineux sur la face inférieure.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Magnolia_%C3%A0_grandes_fleurs</t>
+          <t>Magnolia_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,13 +567,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat naturel
-C'est un arbre originaire du sud-est des États-Unis, du Texas jusqu'en Virginie en passant par le nord et le centre de la Floride.
-Acclimatation en Europe
-L'arbre est introduit en Europe au XVIIIe siècle.
-C'est probablement l'amiral Roland-Michel Barrin de la Galissonnière qui l'importe en France, depuis le port de Paimbœuf en aval de Nantes, en 1711[1].
-Une vingtaine d'années plus tard, René Darquistade, maire de Nantes, plante cette essence dans les serres de sa propriété de la Maillardière aux Sorinières au sud de Nantes. Le jugeant sans intérêt, Darquistade décide d'abattre l'arbre. Celui-ci est sauvé de justesse par l'épouse du jardinier qui le fait replanter dans les dépendances du château au pied du pigeonnier. Trouvant enfin des conditions plus favorables, le magnolier se développe et finit par fleurir. Après plusieurs tentatives infructueuses, les pépiniéristes nantais réussissent à le multiplier par marcottage aérien, permettant ainsi d’assurer sa diffusion[1],[2].
-En 1764, grâce à un rameau rapporté par le jeune apothicaire Louvrier, François Bonamy identifie ce magnolia[1].
+          <t>Habitat naturel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre originaire du sud-est des États-Unis, du Texas jusqu'en Virginie en passant par le nord et le centre de la Floride.
 </t>
         </is>
       </c>
@@ -570,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Magnolia_%C3%A0_grandes_fleurs</t>
+          <t>Magnolia_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,13 +599,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre de climats tempérés et tropicaux, il préfère une exposition plein soleil, et la proximité d'une eau courante. En France, il est rustique jusqu'en Île-de-France, où il souffre cependant des grands froids. Plus au nord, il pousse moins bien et fleurit peu.
-Préfère les sols siliceux humides à pH acide.
+          <t>Acclimatation en Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est introduit en Europe au XVIIIe siècle.
+C'est probablement l'amiral Roland-Michel Barrin de la Galissonnière qui l'importe en France, depuis le port de Paimbœuf en aval de Nantes, en 1711.
+Une vingtaine d'années plus tard, René Darquistade, maire de Nantes, plante cette essence dans les serres de sa propriété de la Maillardière aux Sorinières au sud de Nantes. Le jugeant sans intérêt, Darquistade décide d'abattre l'arbre. Celui-ci est sauvé de justesse par l'épouse du jardinier qui le fait replanter dans les dépendances du château au pied du pigeonnier. Trouvant enfin des conditions plus favorables, le magnolier se développe et finit par fleurir. Après plusieurs tentatives infructueuses, les pépiniéristes nantais réussissent à le multiplier par marcottage aérien, permettant ainsi d’assurer sa diffusion,.
+En 1764, grâce à un rameau rapporté par le jeune apothicaire Louvrier, François Bonamy identifie ce magnolia.
 </t>
         </is>
       </c>
@@ -602,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Magnolia_%C3%A0_grandes_fleurs</t>
+          <t>Magnolia_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,10 +639,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre de climats tempérés et tropicaux, il préfère une exposition plein soleil, et la proximité d'une eau courante. En France, il est rustique jusqu'en Île-de-France, où il souffre cependant des grands froids. Plus au nord, il pousse moins bien et fleurit peu.
+Préfère les sols siliceux humides à pH acide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Magnolia_à_grandes_fleurs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magnolia_%C3%A0_grandes_fleurs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Variétés ou cultivars</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il existe de nombreuses variétés ou cultivars, dont :
 Magnolia grandiflora 'Angustifolia'. Laurier-tulipier à feuilles étroites, longues de 20 cm, large de 3 à 5 cm.
